--- a/playground/spreadsheet/DPL/Host/App_Data/Sample.xlsx
+++ b/playground/spreadsheet/DPL/Host/App_Data/Sample.xlsx
@@ -79,11 +79,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,10 +368,13 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -397,6 +401,11 @@
       <c r="C5">
         <f>A5 + B5</f>
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>36892</v>
       </c>
     </row>
     <row r="26" spans="10:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/playground/spreadsheet/DPL/Host/App_Data/Sample.xlsx
+++ b/playground/spreadsheet/DPL/Host/App_Data/Sample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>U</t>
   </si>
@@ -45,13 +45,24 @@
 Praesent aliquam eget dui eget egestas. Etiam consequat ex ex, vel consequat purus vehicula vel. Pellentesque vestibulum quam ipsum, vel pulvinar nulla commodo a. Aliquam egestas maximus condimentum. Nulla non ante diam. Phasellus luctus imperdiet convallis. Pellentesque eu turpis tellus. Aliquam in aliquet tortor. Duis fermentum justo nulla, in viverra orci dignissim vel. Cras vel elementum mauris. Vivamus metus neque, egestas sed ultrices id, viverra non urna. Cras eleifend congue tincidunt. Vestibulum dolor magna, facilisis sit amet diam at, placerat laoreet neque. Proin id nisl et mi efficitur auctor non eget nibh.
 Aliquam cursus luctus dictum. Duis non lacus sagittis, molestie lacus et, dictum orci. Vestibulum urna lectus, egestas in viverra at, aliquet nec justo. Nulla mollis, magna quis luctus molestie, diam dui dictum purus, ut lobortis lacus nulla at nullam.</t>
   </si>
+  <si>
+    <t>FUR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -79,12 +90,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,7 +382,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,22 +390,42 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -402,8 +436,12 @@
         <f>A5 + B5</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>36892</v>
       </c>
@@ -417,6 +455,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:I5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/playground/spreadsheet/DPL/Host/App_Data/Sample.xlsx
+++ b/playground/spreadsheet/DPL/Host/App_Data/Sample.xlsx
@@ -382,7 +382,10 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
